--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A8261F-30CB-4D78-8064-11B50B2401EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A6ECB-90FA-4A8A-9210-374435F6B091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
+    <workbookView xWindow="5388" yWindow="5004" windowWidth="17280" windowHeight="8964" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9FDB-A199-437A-9646-D42047FCB923}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,10 +422,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0.01</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>0.01</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>0.01</v>
@@ -492,29 +492,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>0.01</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.31</v>
-      </c>
-      <c r="B8">
-        <v>180</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
         <v>0</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A6ECB-90FA-4A8A-9210-374435F6B091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F61C6D-FAF0-40F7-8B1F-7BD8CCA4ED2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="5004" windowWidth="17280" windowHeight="8964" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9FDB-A199-437A-9646-D42047FCB923}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.16</v>
+        <v>0.88</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.21</v>
+        <v>1.22</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.26</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
         <v>150</v>
@@ -487,20 +487,6 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.31</v>
-      </c>
-      <c r="B7">
-        <v>180</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F61C6D-FAF0-40F7-8B1F-7BD8CCA4ED2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7CA6F-4BB9-4CC8-B361-FBD9535793D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
@@ -52,13 +52,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,14 +86,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4BD4D40A-F445-4685-BB93-7BD180EAB852}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,13 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9FDB-A199-437A-9646-D42047FCB923}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -422,13 +442,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.34</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
+        <v>250</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -436,13 +456,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.59</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
+        <v>242</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -450,13 +470,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.88</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
+        <v>232</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -464,13 +484,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.22</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
+        <v>224</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -478,15 +498,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.5</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
+        <v>214</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>184</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7CA6F-4BB9-4CC8-B361-FBD9535793D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FDE5C7-7ED9-45B2-966D-E1B6A8C7D1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
@@ -90,12 +90,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,16 +411,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9FDB-A199-437A-9646-D42047FCB923}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -441,118 +439,81 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>250</v>
+      <c r="A2" s="1">
+        <v>3.59</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>242</v>
+      <c r="A3" s="1">
+        <v>2.5499999999999998</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>232</v>
+      <c r="A4" s="1">
+        <v>1.93</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>224</v>
+      <c r="A5" s="1">
+        <v>1.39</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>214</v>
+      <c r="A6" s="1">
+        <v>1.08</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>202</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>194</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>184</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D7CA6F-4BB9-4CC8-B361-FBD9535793D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6648E-C138-4D82-8668-4486EF6BA660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
+    <workbookView xWindow="5736" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6648E-C138-4D82-8668-4486EF6BA660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C74E5-C42B-40F8-A285-B7C7027BE1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA83AA4A-F2AA-4645-AE70-6E9620D9E046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>y</t>
+    <t>s_with</t>
   </si>
   <si>
-    <t>x</t>
+    <t>s_without</t>
   </si>
   <si>
-    <t>y_err</t>
+    <t>a_with</t>
   </si>
   <si>
-    <t>x_err</t>
+    <t>a_without</t>
+  </si>
+  <si>
+    <t>s_err</t>
+  </si>
+  <si>
+    <t>a_err</t>
+  </si>
+  <si>
+    <t>v_err</t>
+  </si>
+  <si>
+    <t>voltage</t>
   </si>
 </sst>
 </file>
@@ -90,13 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -414,10 +423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9FDB-A199-437A-9646-D42047FCB923}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,130 +435,893 @@
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>250</v>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.59E-4</v>
       </c>
       <c r="B2" s="1">
+        <v>-5.0900000000000001E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.7799999999999999E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-6.9899999999999997E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.526E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6.4499999999999996E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.5030000000000001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.2299999999999998E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4.7369999999999999E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-5.9699999999999998E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.776E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-3.4200000000000002E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>7.6340000000000002E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-4.84E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3426E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1.5300000000000001E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1.0951000000000001E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-3.9399999999999998E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7361999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.7100000000000003E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1.4571000000000001E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.1477E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.196E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1.8509000000000001E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.5845E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.7810000000000001E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2.2658999999999999E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.3879999999999999E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0446999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.4510000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2.7026000000000001E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0740000000000004E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.517E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.8180000000000003E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3.1615999999999998E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0128999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0300999999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3.6353999999999997E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.2740000000000001E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.5178000000000003E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.3188999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>242</v>
-      </c>
-      <c r="B3" s="1">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4.1294999999999998E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0539E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.0410999999999997E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.6414999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4.6275999999999998E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.2834E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.5715000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.9415999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5.1479999999999998E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.4681E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.1240000000000003E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.2578999999999998E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5.6784000000000001E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.6462999999999998E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.6864000000000007E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5749999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6.2227999999999999E-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.7488E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.2605000000000003E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.8487999999999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>6.7704E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.8487000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.1415999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>7.3289000000000007E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.8842000000000001E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.4364999999999996E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.397E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>7.8999E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.9177E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.0411000000000005E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.6490000000000002E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8.4760000000000002E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.9111E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.6560999999999994E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.8883000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9.0560000000000002E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.102839</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.1447999999999999E-2</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>232</v>
-      </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.6419000000000005E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.857E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.109082</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.3921000000000002E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.102357</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.8005E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.11550100000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.6282999999999998E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.10829</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.7465999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.121938</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.8910000000000002E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.11429</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.7056000000000002E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.12847</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.1340999999999998E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.120292</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.6437E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.135045</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5.3809999999999997E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.12625700000000001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.6043000000000002E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.141625</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.6545999999999999E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.13226599999999999</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.5549E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.14826700000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.9402999999999997E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.13828799999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.5094E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.155028</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.2158999999999999E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.14429900000000001</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.4715000000000001E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.16175300000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.5002000000000004E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.15026200000000001</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.4422000000000001E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.16851099999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.7625000000000005E-2</v>
+      </c>
+      <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>224</v>
-      </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.15628500000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.3780000000000001E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.17532300000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.0726999999999998E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.16226499999999999</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.3731999999999999E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.18214</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.3299000000000003E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.16822300000000001</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.3321E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.18906100000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.6588000000000003E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.17419200000000001</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.3035E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.195907</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.9147999999999996E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.180173</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.2867999999999999E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.202933</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8.2463999999999996E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.186137</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.2626999999999999E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2099</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.5644999999999999E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.19206899999999999</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.2371999999999999E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.21688499999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.8511000000000006E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.19795599999999999</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.231E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.223935</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9.1574000000000003E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.20391100000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.2152E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.231096</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.4624E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.20990800000000001</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.2001E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.23139699999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.4978000000000007E-2</v>
+      </c>
+      <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>214</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>202</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>194</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>184</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.21586</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.1649E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.23141900000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9.4999E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.221858</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.1596E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.23144600000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.5005999999999993E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.22790199999999999</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.1726E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.23138800000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.4894000000000006E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.23077300000000001</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.1501000000000001E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.231347</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9.4936000000000006E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.230737</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.1560000000000001E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.23136899999999999</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9.5006999999999994E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.23072200000000001</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.1479E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.231347</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9.5064999999999997E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.23073399999999999</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.1479E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.23138400000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9.5017000000000004E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0.23071900000000001</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.1291000000000001E-2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.23139899999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9.4902E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0.230736</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.1547E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.231408</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9.5013E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B652DAB9-0941-44EC-BF92-FA2FCFB70D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD947519-BD8D-402C-A25F-73577034F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,13 +378,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>-0.77700000000000002</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -392,75 +392,104 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>525</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="B8">
+        <v>575</v>
+      </c>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-0.17269999999999999</v>
+      </c>
+      <c r="B9">
+        <v>602</v>
+      </c>
+      <c r="C9">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD947519-BD8D-402C-A25F-73577034F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D99037-9F63-4BD0-806C-EEBB2B2F6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -37,6 +46,12 @@
   </si>
   <si>
     <t>x_err</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>v_err</t>
   </si>
 </sst>
 </file>
@@ -354,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -375,117 +390,108 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.77700000000000002</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>2.1706300161652419E-11</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2.85</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-0.55100000000000005</v>
+        <v>1.26</v>
       </c>
       <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
-        <v>1E-3</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.1192033905279265E-11</v>
+      </c>
+      <c r="E3">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.52900000000000003</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="B4">
-        <v>503</v>
-      </c>
-      <c r="C4">
-        <v>1E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.0712669026090645E-11</v>
+      </c>
+      <c r="E4">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-0.42699999999999999</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="B5">
-        <v>525</v>
-      </c>
-      <c r="C5">
-        <v>1E-3</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.0202740493305505E-11</v>
+      </c>
+      <c r="E5">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-0.35199999999999998</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="B6">
-        <v>540</v>
-      </c>
-      <c r="C6">
-        <v>1E-3</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.9757364538885514E-11</v>
+      </c>
+      <c r="E6">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.34200000000000003</v>
+        <v>1.155</v>
       </c>
       <c r="B7">
-        <v>552</v>
-      </c>
-      <c r="C7">
-        <v>1E-3</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.9313322115670233E-11</v>
+      </c>
+      <c r="E7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-0.26200000000000001</v>
+        <v>1.135</v>
       </c>
       <c r="B8">
-        <v>575</v>
-      </c>
-      <c r="C8">
-        <v>1E-3</v>
-      </c>
-      <c r="D8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.827659161397859E-11</v>
+      </c>
+      <c r="E8">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-0.17269999999999999</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="B9">
-        <v>602</v>
-      </c>
-      <c r="C9">
-        <v>1E-4</v>
-      </c>
-      <c r="D9">
-        <v>1E-3</v>
+        <v>1.7733493364610034E-11</v>
+      </c>
+      <c r="E9">
+        <v>4.2699999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D99037-9F63-4BD0-806C-EEBB2B2F6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6531C648-7D33-4C49-8480-A0F218BF52FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -48,10 +48,28 @@
     <t>x_err</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>v_err</t>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y_err2</t>
+  </si>
+  <si>
+    <t>x_err2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y_err3</t>
+  </si>
+  <si>
+    <t>x_err3</t>
   </si>
 </sst>
 </file>
@@ -369,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -396,102 +414,430 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3049999999999999</v>
+        <v>-2E-3</v>
       </c>
       <c r="B2">
-        <v>2.1706300161652419E-11</v>
-      </c>
-      <c r="C2">
-        <v>5.0000000000000001E-3</v>
+        <v>-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.85</v>
+        <v>-2E-3</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.9890000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.26</v>
+        <v>-2E-3</v>
       </c>
       <c r="B3">
-        <v>2.1192033905279265E-11</v>
+        <v>-1.7</v>
       </c>
       <c r="E3">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.53</v>
+      </c>
+      <c r="I3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.2450000000000001</v>
+        <v>-2E-3</v>
       </c>
       <c r="B4">
-        <v>2.0712669026090645E-11</v>
+        <v>-1.3</v>
       </c>
       <c r="E4">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1.2210000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.2250000000000001</v>
+        <v>-2E-3</v>
       </c>
       <c r="B5">
-        <v>2.0202740493305505E-11</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-1.089</v>
+      </c>
+      <c r="I5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.1850000000000001</v>
+        <v>-2E-3</v>
       </c>
       <c r="B6">
-        <v>1.9757364538885514E-11</v>
+        <v>-0.75</v>
       </c>
       <c r="E6">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>-1.01</v>
+      </c>
+      <c r="I6">
+        <v>0.313</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.155</v>
+        <v>-1E-3</v>
       </c>
       <c r="B7">
-        <v>1.9313322115670233E-11</v>
+        <v>-0.6</v>
       </c>
       <c r="E7">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>-0.83899999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.135</v>
+        <v>-1E-3</v>
       </c>
       <c r="B8">
-        <v>1.827659161397859E-11</v>
+        <v>-0.54</v>
       </c>
       <c r="E8">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.248</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.0649999999999999</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1.7733493364610034E-11</v>
+        <v>-0.51700000000000002</v>
       </c>
       <c r="E9">
-        <v>4.2699999999999996</v>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F9">
+        <v>-0.33</v>
+      </c>
+      <c r="I9">
+        <v>0.188</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1E-3</v>
+      </c>
+      <c r="B10">
+        <v>-0.502</v>
+      </c>
+      <c r="E10">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2E-3</v>
+      </c>
+      <c r="B11">
+        <v>-0.47</v>
+      </c>
+      <c r="E11">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+      <c r="J11">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B12">
+        <v>-0.433</v>
+      </c>
+      <c r="E12">
+        <v>1.369</v>
+      </c>
+      <c r="F12">
+        <v>2.02</v>
+      </c>
+      <c r="I12">
+        <v>2E-3</v>
+      </c>
+      <c r="J12">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B13">
+        <v>-0.379</v>
+      </c>
+      <c r="E13">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B14">
+        <v>-0.308</v>
+      </c>
+      <c r="E14">
+        <v>1.623</v>
+      </c>
+      <c r="F14">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.8E-2</v>
+      </c>
+      <c r="B15">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.748</v>
+      </c>
+      <c r="F15">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.192</v>
+      </c>
+      <c r="B16">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.843</v>
+      </c>
+      <c r="F16">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.26</v>
+      </c>
+      <c r="B17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.915</v>
+      </c>
+      <c r="F17">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="B18">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="F18">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="B19">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="E19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F19">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="B20">
+        <v>1.534</v>
+      </c>
+      <c r="E20">
+        <v>2.17</v>
+      </c>
+      <c r="F20">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21">
+        <v>2.13</v>
+      </c>
+      <c r="E21">
+        <v>2.23</v>
+      </c>
+      <c r="F21">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.68</v>
+      </c>
+      <c r="B22">
+        <v>3.02</v>
+      </c>
+      <c r="E22">
+        <v>2.29</v>
+      </c>
+      <c r="F22">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.82</v>
+      </c>
+      <c r="B23">
+        <v>4.08</v>
+      </c>
+      <c r="E23">
+        <v>2.34</v>
+      </c>
+      <c r="F23">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.97</v>
+      </c>
+      <c r="B24">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.02</v>
+      </c>
+      <c r="B25">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2.06</v>
+      </c>
+      <c r="B26">
+        <v>8.0500000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD947519-BD8D-402C-A25F-73577034F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED09F9-51FF-458D-8A13-E8A538F8091A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="4620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -357,12 +357,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -376,7 +376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.77700000000000002</v>
       </c>
@@ -384,13 +384,13 @@
         <v>450</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-0.55100000000000005</v>
       </c>
@@ -398,13 +398,13 @@
         <v>500</v>
       </c>
       <c r="C3">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-0.52900000000000003</v>
       </c>
@@ -412,13 +412,13 @@
         <v>503</v>
       </c>
       <c r="C4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-0.42699999999999999</v>
       </c>
@@ -426,13 +426,13 @@
         <v>525</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-0.35199999999999998</v>
       </c>
@@ -440,27 +440,27 @@
         <v>540</v>
       </c>
       <c r="C6">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.34200000000000003</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="B7">
         <v>552</v>
       </c>
       <c r="C7">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-0.26200000000000001</v>
       </c>
@@ -468,13 +468,13 @@
         <v>575</v>
       </c>
       <c r="C8">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-0.17269999999999999</v>
       </c>
@@ -482,7 +482,7 @@
         <v>602</v>
       </c>
       <c r="C9">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
         <v>1E-3</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronlv\PycharmProjects\LabScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED09F9-51FF-458D-8A13-E8A538F8091A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF34968-D2E9-48B9-A957-F6066049EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="4620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -354,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
@@ -362,7 +372,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -376,117 +386,131 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-0.17269999999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>602</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>575</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>552</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="B5" s="1">
+        <v>540</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>525</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="B7" s="1">
+        <v>503</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>-0.55100000000000005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>500</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>-0.77700000000000002</v>
       </c>
-      <c r="B2">
+      <c r="B9" s="1">
         <v>450</v>
       </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-0.55100000000000005</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-0.52900000000000003</v>
-      </c>
-      <c r="B4">
-        <v>503</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="B5">
-        <v>525</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-0.35199999999999998</v>
-      </c>
-      <c r="B6">
-        <v>540</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-0.34200000000000003</v>
-      </c>
-      <c r="B7">
-        <v>552</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-0.26200000000000001</v>
-      </c>
-      <c r="B8">
-        <v>575</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-0.17269999999999999</v>
-      </c>
-      <c r="B9">
-        <v>602</v>
-      </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.01</v>
       </c>
       <c r="D9">
-        <v>1E-3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
